--- a/mosip_master/xlsx/device_type.xlsx
+++ b/mosip_master/xlsx/device_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -52,6 +52,15 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scanner dempreintes digitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scannez les empreintes digitales</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRS</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t xml:space="preserve">For scanning Iris</t>
   </si>
   <si>
+    <t xml:space="preserve">Scanner dIris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour scanner liris</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMR</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t xml:space="preserve">For capturing photo</t>
   </si>
   <si>
+    <t xml:space="preserve">Caméra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour capturer une photo</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCN</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t xml:space="preserve">For scanning documents</t>
   </si>
   <si>
+    <t xml:space="preserve">Scanner de documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour numériser des documents</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRT</t>
   </si>
   <si>
@@ -86,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">For printing Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imprimante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour imprimer des documents</t>
   </si>
 </sst>
 </file>
@@ -214,13 +247,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
@@ -261,10 +294,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
@@ -295,16 +328,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -315,27 +348,107 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
